--- a/Google/src/main/Files/Book2.xlsx
+++ b/Google/src/main/Files/Book2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdghiasuddin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdghiasuddin/Downloads/Bootcamp_WeekDays_Selenium_December2019_Kollol/Google/src/main/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{022D41C0-32F9-CC43-8227-712AAE3E7968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A81E62-56B4-A145-A514-6EAC324A6F28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14560" xr2:uid="{F84C76DF-4CAF-E148-8800-8047EC07E3EB}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14520" xr2:uid="{F84C76DF-4CAF-E148-8800-8047EC07E3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -80,12 +80,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,32 +419,32 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
